--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -1347,9 +1347,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -1378,7 +1378,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1386,29 +1393,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1431,6 +1415,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1439,23 +1454,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1463,6 +1471,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1476,9 +1498,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1493,29 +1515,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,7 +1542,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,13 +1596,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,91 +1704,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1668,61 +1722,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1797,6 +1797,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1812,17 +1836,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1844,15 +1862,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1861,25 +1870,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1891,130 +1891,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2381,8 +2381,8 @@
   <sheetPr/>
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E255" sqref="E255"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3408,7 +3408,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
@@ -3684,7 +3684,7 @@
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>12</v>
@@ -4126,7 +4126,7 @@
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>12</v>
@@ -4186,7 +4186,7 @@
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>12</v>
@@ -4618,7 +4618,7 @@
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
       <c r="E103" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>12</v>
@@ -5008,7 +5008,7 @@
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
@@ -5140,7 +5140,7 @@
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>12</v>
@@ -5410,7 +5410,7 @@
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
@@ -5446,7 +5446,7 @@
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437">
   <si>
     <t>Step No</t>
   </si>
@@ -382,12 +382,12 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>APP_AUTHORIZE_PERSON</t>
   </si>
   <si>
@@ -1034,9 +1034,6 @@
   </si>
   <si>
     <t>CLAIM_PAYABLE_CITY</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>CLAIM_PAYABLE_STATE</t>
@@ -1347,10 +1344,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1377,36 +1374,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1416,33 +1383,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1455,10 +1399,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1470,19 +1414,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1500,15 +1438,74 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1542,7 +1539,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,31 +1629,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1590,7 +1653,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1602,25 +1683,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1633,96 +1720,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,21 +1779,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1812,15 +1794,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1832,15 +1805,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1870,10 +1834,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1891,130 +1888,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2381,8 +2378,8 @@
   <sheetPr/>
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3361,16 +3358,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E45" s="7" t="s">
         <v>119</v>
+      </c>
+      <c r="E45" s="7">
+        <v>1</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -6891,13 +6888,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D218" s="6" t="s">
         <v>336</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>337</v>
       </c>
       <c r="E218" s="6">
         <v>2</v>
@@ -7527,14 +7524,14 @@
         <v>35</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E250" s="6"/>
       <c r="F250" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G250" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="G250" s="6" t="s">
-        <v>340</v>
       </c>
       <c r="H250" s="6"/>
     </row>
@@ -7593,7 +7590,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7601,20 +7598,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" t="s">
         <v>343</v>
-      </c>
-      <c r="C3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -7625,20 +7622,20 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C6" t="s">
         <v>347</v>
-      </c>
-      <c r="C6" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -7646,47 +7643,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" t="s">
         <v>350</v>
-      </c>
-      <c r="C8" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" t="s">
         <v>355</v>
-      </c>
-      <c r="C10" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" t="s">
         <v>357</v>
-      </c>
-      <c r="C11" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -7701,7 +7698,7 @@
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -7711,17 +7708,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -7731,35 +7728,35 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>336</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -7769,62 +7766,62 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -7834,87 +7831,87 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7924,37 +7921,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -7964,159 +7961,159 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -8131,17 +8128,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436">
   <si>
     <t>Step No</t>
   </si>
@@ -499,9 +500,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -523,9 +521,6 @@
     <t>APP_INS_TYPE</t>
   </si>
   <si>
-    <t>Medicare</t>
-  </si>
-  <si>
     <t>Insurance type selected</t>
   </si>
   <si>
@@ -622,400 +617,403 @@
     <t>PRIMAY_DIAGNOSIS</t>
   </si>
   <si>
+    <t>con</t>
+  </si>
+  <si>
+    <t>Type Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis entered</t>
+  </si>
+  <si>
+    <t>Select Primary Diagnosis</t>
+  </si>
+  <si>
+    <t>Primary Diagnosis selected</t>
+  </si>
+  <si>
+    <t>DATE_OF_DIAGNOSIS</t>
+  </si>
+  <si>
+    <t>Select Diagnosis date</t>
+  </si>
+  <si>
+    <t>Diagnosis date selected</t>
+  </si>
+  <si>
+    <t>SELF_LASTPAGE</t>
+  </si>
+  <si>
+    <t>Check Self</t>
+  </si>
+  <si>
+    <t>Self checked</t>
+  </si>
+  <si>
+    <t>AGREE_CHECKBOX_STEP7</t>
+  </si>
+  <si>
+    <t>AGREE_SUBMIT_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on AGREE and Submit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Button clicked </t>
+  </si>
+  <si>
+    <t>Wait for popup</t>
+  </si>
+  <si>
+    <t>Popup loaded</t>
+  </si>
+  <si>
+    <t>PATIENT_AGREE_CHECKBOX</t>
+  </si>
+  <si>
+    <t>Check agree box</t>
+  </si>
+  <si>
+    <t>Agree box checked</t>
+  </si>
+  <si>
+    <t>AGREE_BUTTON</t>
+  </si>
+  <si>
+    <t>Click Agree button</t>
+  </si>
+  <si>
+    <t>Agree button clicked</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>Enter Signature</t>
+  </si>
+  <si>
+    <t>Signature entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_NAME</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Enter Name</t>
+  </si>
+  <si>
+    <t>Name entered</t>
+  </si>
+  <si>
+    <t>E_SIGNATURE_PHONE</t>
+  </si>
+  <si>
+    <t>SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>Click Sign and submit button</t>
+  </si>
+  <si>
+    <t>Sign and submit button clicked</t>
+  </si>
+  <si>
+    <t>GetText</t>
+  </si>
+  <si>
+    <t>SUBMIT_PATIENT_NAME</t>
+  </si>
+  <si>
+    <t>Get Patient Name</t>
+  </si>
+  <si>
+    <t>Retrieved succussfully</t>
+  </si>
+  <si>
+    <t>SUBMIT_FUND_NAME</t>
+  </si>
+  <si>
+    <t>Get Fund Name</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_FROM</t>
+  </si>
+  <si>
+    <t>Get award period from</t>
+  </si>
+  <si>
+    <t>SUBMIT_AWARD_PERIOD_TO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get award period to </t>
+  </si>
+  <si>
+    <t>SUBMIT_CARDHOLDER</t>
+  </si>
+  <si>
+    <t>Get cardholder</t>
+  </si>
+  <si>
+    <t>SUBMIT_BIN</t>
+  </si>
+  <si>
+    <t>Get BIN</t>
+  </si>
+  <si>
+    <t>SUBMIT_PCN</t>
+  </si>
+  <si>
+    <t>Get PCN</t>
+  </si>
+  <si>
+    <t>SUBMIT_GROUP</t>
+  </si>
+  <si>
+    <t>Get group</t>
+  </si>
+  <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>HOME_ACTIONS</t>
+  </si>
+  <si>
+    <t>Click on Actions</t>
+  </si>
+  <si>
+    <t>Actions clicked</t>
+  </si>
+  <si>
+    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
+  </si>
+  <si>
+    <t>Click on View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>Clicked View Correspondence/Upload Document</t>
+  </si>
+  <si>
+    <t>UPLOAD_DOCUMENTS_BUTTON</t>
+  </si>
+  <si>
+    <t>Click on Upload button</t>
+  </si>
+  <si>
+    <t>Uplod document button clicked</t>
+  </si>
+  <si>
+    <t>UDPLOAD_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>_Desc</t>
+  </si>
+  <si>
+    <t>Type Description</t>
+  </si>
+  <si>
+    <t>Description entered</t>
+  </si>
+  <si>
+    <t>UPLOAD_SELECT_CATEGORY</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Select File</t>
+  </si>
+  <si>
+    <t>File selected</t>
+  </si>
+  <si>
+    <t>TypeUpload</t>
+  </si>
+  <si>
+    <t>UPLOAD_FILE</t>
+  </si>
+  <si>
+    <t>logo</t>
+  </si>
+  <si>
+    <t>Upload a file</t>
+  </si>
+  <si>
+    <t>File uploaded</t>
+  </si>
+  <si>
+    <t>Click Submit button</t>
+  </si>
+  <si>
+    <t>Submit button clicked</t>
+  </si>
+  <si>
+    <t>AlertOk</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
+    <t>PROVIDER_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click on Expenditure</t>
+  </si>
+  <si>
+    <t>Clicked Expenditure</t>
+  </si>
+  <si>
+    <t>CREATE_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click Create expenditure</t>
+  </si>
+  <si>
+    <t>Create Expenditure clicked</t>
+  </si>
+  <si>
+    <t>CLAIM_SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>1.Existing provider search</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>Heller</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH_FIRST</t>
+  </si>
+  <si>
+    <t>Select first provider</t>
+  </si>
+  <si>
+    <t>Provier selected</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Add Provider</t>
+  </si>
+  <si>
+    <t>Provider added</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>Click ok to Pcase alert</t>
+  </si>
+  <si>
+    <t>Pcase alert clicked</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>REMITTER_TO_DROPDOWN</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>2. Select Patient</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>CLAIM_UPDATE_PAYEE</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
+  </si>
+  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Type Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis entered</t>
-  </si>
-  <si>
-    <t>Select Primary Diagnosis</t>
-  </si>
-  <si>
-    <t>Primary Diagnosis selected</t>
-  </si>
-  <si>
-    <t>DATE_OF_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Select Diagnosis date</t>
-  </si>
-  <si>
-    <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>SELF_LASTPAGE</t>
-  </si>
-  <si>
-    <t>Check Self</t>
-  </si>
-  <si>
-    <t>Self checked</t>
-  </si>
-  <si>
-    <t>AGREE_CHECKBOX_STEP7</t>
-  </si>
-  <si>
-    <t>AGREE_SUBMIT_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on AGREE and Submit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Button clicked </t>
-  </si>
-  <si>
-    <t>Wait for popup</t>
-  </si>
-  <si>
-    <t>Popup loaded</t>
-  </si>
-  <si>
-    <t>PATIENT_AGREE_CHECKBOX</t>
-  </si>
-  <si>
-    <t>Check agree box</t>
-  </si>
-  <si>
-    <t>Agree box checked</t>
-  </si>
-  <si>
-    <t>AGREE_BUTTON</t>
-  </si>
-  <si>
-    <t>Click Agree button</t>
-  </si>
-  <si>
-    <t>Agree button clicked</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE</t>
-  </si>
-  <si>
-    <t>sign</t>
-  </si>
-  <si>
-    <t>Enter Signature</t>
-  </si>
-  <si>
-    <t>Signature entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_NAME</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Enter Name</t>
-  </si>
-  <si>
-    <t>Name entered</t>
-  </si>
-  <si>
-    <t>E_SIGNATURE_PHONE</t>
-  </si>
-  <si>
-    <t>SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>Click Sign and submit button</t>
-  </si>
-  <si>
-    <t>Sign and submit button clicked</t>
-  </si>
-  <si>
-    <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>HOME_ACTIONS</t>
-  </si>
-  <si>
-    <t>Click on Actions</t>
-  </si>
-  <si>
-    <t>Actions clicked</t>
-  </si>
-  <si>
-    <t>ACTION_PROVIDER_UPLOAD_DOCS</t>
-  </si>
-  <si>
-    <t>Click on View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>Clicked View Correspondence/Upload Document</t>
-  </si>
-  <si>
-    <t>UPLOAD_DOCUMENTS_BUTTON</t>
-  </si>
-  <si>
-    <t>Click on Upload button</t>
-  </si>
-  <si>
-    <t>Uplod document button clicked</t>
-  </si>
-  <si>
-    <t>UDPLOAD_DESCRIPTION</t>
-  </si>
-  <si>
-    <t>_Desc</t>
-  </si>
-  <si>
-    <t>Type Description</t>
-  </si>
-  <si>
-    <t>Description entered</t>
-  </si>
-  <si>
-    <t>UPLOAD_SELECT_CATEGORY</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>Select File</t>
-  </si>
-  <si>
-    <t>File selected</t>
-  </si>
-  <si>
-    <t>TypeUpload</t>
-  </si>
-  <si>
-    <t>UPLOAD_FILE</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>Upload a file</t>
-  </si>
-  <si>
-    <t>File uploaded</t>
-  </si>
-  <si>
-    <t>Click Submit button</t>
-  </si>
-  <si>
-    <t>Submit button clicked</t>
-  </si>
-  <si>
-    <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PROVIDER_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click on Expenditure</t>
-  </si>
-  <si>
-    <t>Clicked Expenditure</t>
-  </si>
-  <si>
-    <t>CREATE_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click Create expenditure</t>
-  </si>
-  <si>
-    <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>CLAIM_SEARCH_PROVIDER</t>
-  </si>
-  <si>
-    <t>1.Existing provider search</t>
-  </si>
-  <si>
-    <t>NAME_TAB_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>Heller</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH_FIRST</t>
-  </si>
-  <si>
-    <t>Select first provider</t>
-  </si>
-  <si>
-    <t>Provier selected</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Click Add Provider</t>
-  </si>
-  <si>
-    <t>Provider added</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>REMITTER_TO_DROPDOWN</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>2. Select Patient</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t>CLAIM_UPDATE_PAYEE</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
   </si>
   <si>
     <t>3. Select Other</t>
@@ -1344,10 +1342,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1374,11 +1372,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1390,9 +1394,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1407,14 +1410,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1422,7 +1448,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1437,6 +1486,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1444,75 +1509,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1539,7 +1537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1551,7 +1573,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1563,61 +1705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1629,102 +1717,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1772,9 +1770,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1794,17 +1818,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1838,30 +1871,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1870,13 +1879,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1888,134 +1897,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2024,6 +2033,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2086,6 +2096,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2378,8 +2403,8 @@
   <sheetPr/>
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3753,8 +3778,8 @@
       <c r="A63" s="7">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>44</v>
+      <c r="B63" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>35</v>
@@ -3762,14 +3787,14 @@
       <c r="D63" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="7">
+        <v>1</v>
+      </c>
+      <c r="F63" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="G63" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H63" s="7"/>
     </row>
@@ -3784,16 +3809,16 @@
         <v>15</v>
       </c>
       <c r="D64" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="F64" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="G64" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="G64" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="H64" s="6"/>
     </row>
@@ -3801,23 +3826,23 @@
       <c r="A65" s="7">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>44</v>
+      <c r="B65" s="8" t="s">
+        <v>118</v>
       </c>
       <c r="C65" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
+      </c>
+      <c r="E65" s="7">
+        <v>1</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>154</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H65" s="7"/>
     </row>
@@ -3832,16 +3857,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>99</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H66" s="6"/>
     </row>
@@ -3856,16 +3881,16 @@
         <v>15</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E67" s="7">
         <v>1235647899</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H67" s="7"/>
     </row>
@@ -3880,7 +3905,7 @@
         <v>35</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3898,14 +3923,14 @@
         <v>35</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H69" s="7"/>
     </row>
@@ -3920,16 +3945,16 @@
         <v>15</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E70" s="6">
         <v>97890456789</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H70" s="6"/>
     </row>
@@ -3944,14 +3969,14 @@
         <v>35</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H71" s="7"/>
     </row>
@@ -3966,13 +3991,13 @@
         <v>35</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E72" s="6">
         <v>1230</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G72" s="6" t="s">
         <v>22</v>
@@ -3990,13 +4015,13 @@
         <v>35</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E73" s="7">
         <v>1550</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>22</v>
@@ -4014,11 +4039,11 @@
         <v>35</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G74" s="6" t="s">
         <v>22</v>
@@ -4036,14 +4061,14 @@
         <v>35</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H75" s="7"/>
     </row>
@@ -4058,14 +4083,14 @@
         <v>35</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H76" s="6"/>
     </row>
@@ -4080,14 +4105,14 @@
         <v>35</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H77" s="7"/>
     </row>
@@ -4144,7 +4169,7 @@
         <v>35</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -4204,16 +4229,16 @@
         <v>35</v>
       </c>
       <c r="D83" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F83" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H83" s="7"/>
     </row>
@@ -4244,10 +4269,10 @@
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H85" s="7"/>
     </row>
@@ -4262,14 +4287,14 @@
         <v>35</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H86" s="6"/>
     </row>
@@ -4284,14 +4309,14 @@
         <v>35</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H87" s="7"/>
     </row>
@@ -4348,14 +4373,14 @@
         <v>35</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -4386,7 +4411,7 @@
         <v>35</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -4420,14 +4445,14 @@
         <v>35</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H94" s="6"/>
     </row>
@@ -4444,10 +4469,10 @@
         <v>3</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H95" s="7"/>
     </row>
@@ -4462,14 +4487,14 @@
         <v>35</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H96" s="6"/>
     </row>
@@ -4484,14 +4509,14 @@
         <v>35</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E97" s="7"/>
       <c r="F97" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H97" s="7"/>
     </row>
@@ -4522,16 +4547,16 @@
         <v>15</v>
       </c>
       <c r="D99" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="G99" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="H99" s="7"/>
     </row>
@@ -4546,16 +4571,16 @@
         <v>15</v>
       </c>
       <c r="D100" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="E100" s="6" t="s">
+      <c r="G100" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="F100" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="G100" s="6" t="s">
-        <v>228</v>
       </c>
       <c r="H100" s="6"/>
     </row>
@@ -4570,7 +4595,7 @@
         <v>15</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E101" s="7">
         <v>9889656446</v>
@@ -4594,14 +4619,14 @@
         <v>15</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H102" s="6"/>
     </row>
@@ -4630,20 +4655,20 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G104" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H104" s="6"/>
     </row>
@@ -4652,20 +4677,20 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E105" s="7"/>
       <c r="F105" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H105" s="7"/>
     </row>
@@ -4674,20 +4699,20 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G106" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H106" s="6"/>
     </row>
@@ -4696,20 +4721,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E107" s="7"/>
       <c r="F107" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H107" s="7"/>
     </row>
@@ -4718,20 +4743,20 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H108" s="6"/>
     </row>
@@ -4740,20 +4765,20 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E109" s="7"/>
       <c r="F109" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H109" s="7"/>
     </row>
@@ -4762,20 +4787,20 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H110" s="6"/>
     </row>
@@ -4784,20 +4809,20 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G111" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H111" s="7"/>
     </row>
@@ -4812,14 +4837,14 @@
         <v>35</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H112" s="6"/>
     </row>
@@ -4962,14 +4987,14 @@
         <v>35</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H120" s="6"/>
     </row>
@@ -4984,14 +5009,14 @@
         <v>15</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E121" s="7"/>
       <c r="F121" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G121" s="7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H121" s="7"/>
     </row>
@@ -5022,14 +5047,14 @@
         <v>35</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E123" s="7"/>
       <c r="F123" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G123" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H123" s="7"/>
     </row>
@@ -5044,16 +5069,16 @@
         <v>15</v>
       </c>
       <c r="D124" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="F124" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="G124" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="G124" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="H124" s="6"/>
     </row>
@@ -5068,16 +5093,16 @@
         <v>35</v>
       </c>
       <c r="D125" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="E125" s="7" t="s">
+      <c r="G125" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H125" s="7"/>
     </row>
@@ -5086,22 +5111,22 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E126" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C126" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D126" s="6" t="s">
+      <c r="F126" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E126" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="F126" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G126" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H126" s="6"/>
     </row>
@@ -5120,10 +5145,10 @@
       </c>
       <c r="E127" s="7"/>
       <c r="F127" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H127" s="7"/>
     </row>
@@ -5152,7 +5177,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -5192,14 +5217,14 @@
         <v>15</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E131" s="7"/>
       <c r="F131" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="H131" s="7"/>
     </row>
@@ -5326,14 +5351,14 @@
         <v>35</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H138" s="6"/>
     </row>
@@ -5348,14 +5373,14 @@
         <v>15</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E139" s="7"/>
       <c r="F139" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G139" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H139" s="7"/>
     </row>
@@ -5386,14 +5411,14 @@
         <v>35</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E141" s="7"/>
       <c r="F141" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G141" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H141" s="7"/>
     </row>
@@ -5424,11 +5449,11 @@
         <v>15</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E143" s="7"/>
       <c r="F143" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
@@ -5460,7 +5485,7 @@
         <v>35</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E145" s="7"/>
       <c r="F145" s="7"/>
@@ -5494,13 +5519,13 @@
         <v>35</v>
       </c>
       <c r="D147" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F147" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="G147" s="7" t="s">
         <v>105</v>
@@ -5518,10 +5543,10 @@
         <v>15</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E148" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F148" s="6" t="s">
         <v>126</v>
@@ -5542,14 +5567,14 @@
         <v>15</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E149" s="7"/>
       <c r="F149" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G149" s="7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H149" s="7"/>
     </row>
@@ -5584,14 +5609,14 @@
         <v>35</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E151" s="7"/>
       <c r="F151" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H151" s="7"/>
     </row>
@@ -5606,14 +5631,14 @@
         <v>35</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H152" s="6"/>
     </row>
@@ -5644,7 +5669,7 @@
         <v>35</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -5662,14 +5687,14 @@
         <v>35</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E155" s="7"/>
       <c r="F155" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G155" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H155" s="7"/>
     </row>
@@ -5684,7 +5709,7 @@
         <v>35</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -5702,14 +5727,14 @@
         <v>35</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E157" s="7"/>
       <c r="F157" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G157" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H157" s="7"/>
     </row>
@@ -5724,7 +5749,7 @@
         <v>35</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E158" s="6">
         <v>200</v>
@@ -5744,7 +5769,7 @@
         <v>35</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E159" s="7"/>
       <c r="F159" s="7" t="s">
@@ -5782,10 +5807,10 @@
         <v>15</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E161" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F161" s="7"/>
       <c r="G161" s="7"/>
@@ -5796,22 +5821,22 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E162" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D162" s="6" t="s">
+      <c r="F162" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="E162" s="6" t="s">
+      <c r="G162" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="F162" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="H162" s="6"/>
     </row>
@@ -5826,7 +5851,7 @@
         <v>35</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E163" s="7"/>
       <c r="F163" s="7" t="s">
@@ -5864,7 +5889,7 @@
         <v>35</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E165" s="7"/>
       <c r="F165" s="7"/>
@@ -5882,7 +5907,7 @@
         <v>35</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>99</v>
@@ -5902,7 +5927,7 @@
         <v>35</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E167" s="7"/>
       <c r="F167" s="7"/>
@@ -5930,16 +5955,16 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C169" s="7"/>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H169" s="7"/>
     </row>
@@ -5964,20 +5989,20 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E171" s="7"/>
       <c r="F171" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H171" s="7"/>
     </row>
@@ -5986,20 +6011,20 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H172" s="6"/>
     </row>
@@ -6014,14 +6039,14 @@
         <v>35</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E173" s="7"/>
       <c r="F173" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G173" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H173" s="7"/>
     </row>
@@ -6052,16 +6077,16 @@
         <v>35</v>
       </c>
       <c r="D175" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="E175" s="7" t="s">
+      <c r="G175" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="H175" s="7"/>
     </row>
@@ -6076,7 +6101,7 @@
         <v>15</v>
       </c>
       <c r="D176" s="6" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -6104,13 +6129,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D178" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E178" s="6">
         <v>10002</v>
@@ -6130,7 +6155,7 @@
         <v>15</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E179" s="7"/>
       <c r="F179" s="7"/>
@@ -6158,13 +6183,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E181" s="7"/>
       <c r="F181" s="7"/>
@@ -6182,11 +6207,11 @@
         <v>15</v>
       </c>
       <c r="D182" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E182" s="6"/>
       <c r="F182" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
@@ -6218,7 +6243,7 @@
         <v>35</v>
       </c>
       <c r="D184" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E184" s="6"/>
       <c r="F184" s="6"/>
@@ -6252,13 +6277,13 @@
         <v>35</v>
       </c>
       <c r="D186" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F186" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="E186" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F186" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="G186" s="6" t="s">
         <v>105</v>
@@ -6276,10 +6301,10 @@
         <v>15</v>
       </c>
       <c r="D187" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E187" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F187" s="7" t="s">
         <v>126</v>
@@ -6300,14 +6325,14 @@
         <v>15</v>
       </c>
       <c r="D188" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E188" s="6"/>
       <c r="F188" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H188" s="6"/>
     </row>
@@ -6342,14 +6367,14 @@
         <v>35</v>
       </c>
       <c r="D190" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E190" s="6"/>
       <c r="F190" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H190" s="6"/>
     </row>
@@ -6364,14 +6389,14 @@
         <v>35</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E191" s="7"/>
       <c r="F191" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G191" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H191" s="7"/>
     </row>
@@ -6402,7 +6427,7 @@
         <v>35</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E193" s="7"/>
       <c r="F193" s="7"/>
@@ -6420,14 +6445,14 @@
         <v>35</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H194" s="6"/>
     </row>
@@ -6442,7 +6467,7 @@
         <v>35</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E195" s="7"/>
       <c r="F195" s="7"/>
@@ -6460,14 +6485,14 @@
         <v>35</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G196" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H196" s="6"/>
     </row>
@@ -6482,7 +6507,7 @@
         <v>35</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E197" s="7">
         <v>200</v>
@@ -6502,7 +6527,7 @@
         <v>35</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6" t="s">
@@ -6540,10 +6565,10 @@
         <v>15</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E200" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="6"/>
@@ -6554,22 +6579,22 @@
         <v>200</v>
       </c>
       <c r="B201" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E201" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C201" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D201" s="7" t="s">
+      <c r="F201" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E201" s="7" t="s">
+      <c r="G201" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G201" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H201" s="7"/>
     </row>
@@ -6584,7 +6609,7 @@
         <v>35</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6" t="s">
@@ -6622,7 +6647,7 @@
         <v>35</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -6640,7 +6665,7 @@
         <v>35</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>99</v>
@@ -6660,7 +6685,7 @@
         <v>35</v>
       </c>
       <c r="D206" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -6688,16 +6713,16 @@
         <v>207</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6"/>
       <c r="F208" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H208" s="6"/>
     </row>
@@ -6722,20 +6747,20 @@
         <v>209</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H210" s="6"/>
     </row>
@@ -6744,20 +6769,20 @@
         <v>210</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C211" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E211" s="7"/>
       <c r="F211" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G211" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H211" s="7"/>
     </row>
@@ -6772,14 +6797,14 @@
         <v>35</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H212" s="6"/>
     </row>
@@ -6810,16 +6835,16 @@
         <v>35</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>198</v>
+        <v>328</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H214" s="6"/>
     </row>
@@ -6834,10 +6859,10 @@
         <v>15</v>
       </c>
       <c r="D215" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E215" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
@@ -6854,10 +6879,10 @@
         <v>15</v>
       </c>
       <c r="D216" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="E216" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="E216" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6"/>
@@ -6874,7 +6899,7 @@
         <v>15</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>107</v>
@@ -6894,7 +6919,7 @@
         <v>35</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E218" s="6">
         <v>2</v>
@@ -6908,13 +6933,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C219" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D219" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E219" s="7">
         <v>10002</v>
@@ -6934,11 +6959,11 @@
         <v>15</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
@@ -6970,7 +6995,7 @@
         <v>35</v>
       </c>
       <c r="D222" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -7004,13 +7029,13 @@
         <v>35</v>
       </c>
       <c r="D224" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="E224" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F224" s="6" t="s">
         <v>291</v>
-      </c>
-      <c r="E224" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="F224" s="6" t="s">
-        <v>293</v>
       </c>
       <c r="G224" s="6" t="s">
         <v>105</v>
@@ -7028,10 +7053,10 @@
         <v>15</v>
       </c>
       <c r="D225" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F225" s="7" t="s">
         <v>126</v>
@@ -7052,14 +7077,14 @@
         <v>15</v>
       </c>
       <c r="D226" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H226" s="6"/>
     </row>
@@ -7094,14 +7119,14 @@
         <v>35</v>
       </c>
       <c r="D228" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H228" s="6"/>
     </row>
@@ -7116,14 +7141,14 @@
         <v>35</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E229" s="7"/>
       <c r="F229" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G229" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H229" s="7"/>
     </row>
@@ -7154,7 +7179,7 @@
         <v>35</v>
       </c>
       <c r="D231" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
@@ -7172,14 +7197,14 @@
         <v>35</v>
       </c>
       <c r="D232" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H232" s="6"/>
     </row>
@@ -7194,7 +7219,7 @@
         <v>35</v>
       </c>
       <c r="D233" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E233" s="7"/>
       <c r="F233" s="7"/>
@@ -7212,14 +7237,14 @@
         <v>35</v>
       </c>
       <c r="D234" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H234" s="6"/>
     </row>
@@ -7234,7 +7259,7 @@
         <v>35</v>
       </c>
       <c r="D235" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E235" s="7">
         <v>200</v>
@@ -7254,7 +7279,7 @@
         <v>35</v>
       </c>
       <c r="D236" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6" t="s">
@@ -7292,10 +7317,10 @@
         <v>15</v>
       </c>
       <c r="D238" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E238" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F238" s="6"/>
       <c r="G238" s="6"/>
@@ -7306,22 +7331,22 @@
         <v>238</v>
       </c>
       <c r="B239" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E239" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C239" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D239" s="7" t="s">
+      <c r="F239" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E239" s="7" t="s">
+      <c r="G239" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="H239" s="7"/>
     </row>
@@ -7336,7 +7361,7 @@
         <v>35</v>
       </c>
       <c r="D240" s="6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6" t="s">
@@ -7374,7 +7399,7 @@
         <v>35</v>
       </c>
       <c r="D242" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
@@ -7392,7 +7417,7 @@
         <v>35</v>
       </c>
       <c r="D243" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E243" s="7" t="s">
         <v>99</v>
@@ -7412,7 +7437,7 @@
         <v>35</v>
       </c>
       <c r="D244" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -7440,16 +7465,16 @@
         <v>245</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="6"/>
       <c r="E246" s="6"/>
       <c r="F246" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H246" s="6"/>
     </row>
@@ -7474,20 +7499,20 @@
         <v>247</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>35</v>
       </c>
       <c r="D248" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E248" s="6"/>
       <c r="F248" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H248" s="6"/>
     </row>
@@ -7496,20 +7521,20 @@
         <v>248</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C249" s="7" t="s">
         <v>35</v>
       </c>
       <c r="D249" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E249" s="7"/>
       <c r="F249" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G249" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H249" s="7"/>
     </row>
@@ -7524,14 +7549,14 @@
         <v>35</v>
       </c>
       <c r="D250" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E250" s="6"/>
       <c r="F250" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G250" s="6" t="s">
         <v>338</v>
-      </c>
-      <c r="G250" s="6" t="s">
-        <v>339</v>
       </c>
       <c r="H250" s="6"/>
     </row>
@@ -7552,8 +7577,11 @@
       <c r="H251" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B142 B173 B174 B179 B212 B213 B216 B217 B218 B219 B1:B141 B143:B144 B145:B146 B154:B163 B164:B172 B175:B176 B177:B178 B180:B181 B182:B183 B184:B185 B193:B202 B203:B211 B214:B215 B220:B221 B222:B223 B231:B240 B241:B249 B250:B1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B65">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B64 B142 B173 B174 B179 B212 B213 B216 B217 B218 B219 B1:B62 B66:B141 B143:B144 B145:B146 B154:B163 B164:B172 B175:B176 B177:B178 B180:B181 B182:B183 B184:B185 B193:B202 B203:B211 B214:B215 B220:B221 B222:B223 B231:B240 B241:B249 B250:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C173 C179 C180 C212 C218 C219 C1:C141 C142:C144 C145:C146 C154:C163 C164:C172 C174:C176 C177:C178 C182:C183 C184:C185 C193:C202 C203:C211 C213:C215 C216:C217 C220:C221 C222:C223 C231:C240 C241:C249 C250:C1048576">
@@ -7590,7 +7618,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -7598,20 +7626,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C3" t="s">
         <v>342</v>
-      </c>
-      <c r="C3" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -7622,20 +7650,20 @@
         <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" t="s">
         <v>346</v>
-      </c>
-      <c r="C6" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -7643,47 +7671,47 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" t="s">
         <v>349</v>
-      </c>
-      <c r="C8" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" t="s">
         <v>354</v>
-      </c>
-      <c r="C10" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>355</v>
+      </c>
+      <c r="C11" t="s">
         <v>356</v>
-      </c>
-      <c r="C11" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="3:3">
@@ -7693,12 +7721,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -7708,45 +7736,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -7756,7 +7784,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -7766,152 +7794,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7921,204 +7949,204 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -8128,17 +8156,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -167,7 +167,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>Breast Cancer Silo*</t>
+    <t>Hepatitis C***</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1343,9 +1343,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1373,13 +1373,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1395,7 +1388,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1409,8 +1402,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1423,24 +1447,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,30 +1478,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1493,26 +1500,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1537,7 +1537,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,31 +1699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1585,144 +1711,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1770,35 +1770,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1818,26 +1792,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1868,6 +1833,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1876,10 +1856,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1897,130 +1886,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2033,7 +2022,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2403,8 +2392,8 @@
   <sheetPr/>
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1342,10 +1342,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1372,10 +1372,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1388,7 +1404,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1402,60 +1434,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1468,17 +1448,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1493,23 +1464,52 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1537,7 +1537,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1549,13 +1567,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,31 +1603,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1603,121 +1705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1768,10 +1768,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1792,43 +1842,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1847,34 +1865,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1886,130 +1886,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2392,8 +2392,8 @@
   <sheetPr/>
   <dimension ref="A1:H251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2565,7 +2565,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -13,6 +13,7 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436">
   <si>
     <t>Step No</t>
   </si>
@@ -854,316 +855,319 @@
     <t>Submit button clicked</t>
   </si>
   <si>
+    <t>NEW_CLOSE_BUTTON</t>
+  </si>
+  <si>
+    <t>Close the popup</t>
+  </si>
+  <si>
+    <t>Popup closed</t>
+  </si>
+  <si>
+    <t>BACK_BUTTON</t>
+  </si>
+  <si>
+    <t>Click back button</t>
+  </si>
+  <si>
+    <t>Back button clicked</t>
+  </si>
+  <si>
+    <t>PROVIDER_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click on Expenditure</t>
+  </si>
+  <si>
+    <t>Clicked Expenditure</t>
+  </si>
+  <si>
+    <t>CREATE_EXPENDITURE</t>
+  </si>
+  <si>
+    <t>Click Create expenditure</t>
+  </si>
+  <si>
+    <t>Create Expenditure clicked</t>
+  </si>
+  <si>
+    <t>CLAIM_SEARCH_PROVIDER</t>
+  </si>
+  <si>
+    <t>1.Existing provider search</t>
+  </si>
+  <si>
+    <t>NAME_TAB_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_STATE</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Select State from the search popup</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_LASTNAME</t>
+  </si>
+  <si>
+    <t>Heller</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH</t>
+  </si>
+  <si>
+    <t>Click Search button</t>
+  </si>
+  <si>
+    <t>Search clicked</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_SEARCH_FIRST</t>
+  </si>
+  <si>
+    <t>Select first provider</t>
+  </si>
+  <si>
+    <t>Provier selected</t>
+  </si>
+  <si>
+    <t>SEARCH_PROV_ADD_PROVIDER</t>
+  </si>
+  <si>
+    <t>Click Add Provider</t>
+  </si>
+  <si>
+    <t>Provider added</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO</t>
+  </si>
+  <si>
+    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
+  </si>
+  <si>
+    <t>EXPE_AMOUNT_SUBMITTED</t>
+  </si>
+  <si>
+    <t>EXPE_NEXT_BUTTON</t>
+  </si>
+  <si>
+    <t>EXPE_SIGN_SUBMIT</t>
+  </si>
+  <si>
+    <t>EXPE_ELECTRONIC_SIGN</t>
+  </si>
+  <si>
+    <t>POE_ID</t>
+  </si>
+  <si>
+    <t>Get POE ID</t>
+  </si>
+  <si>
+    <t>POE id retrieved</t>
+  </si>
+  <si>
+    <t>VerifyElementIsPresent</t>
+  </si>
+  <si>
+    <t>SUBMITTED_EXPENDITURES</t>
+  </si>
+  <si>
+    <t>Verify Submitted expenditures</t>
+  </si>
+  <si>
+    <t>Verified</t>
+  </si>
+  <si>
+    <t>REMITTER_TO_DROPDOWN</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>2. Select Patient</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>CLAIM_UPDATE_PAYEE</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>3. Select Other</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_TO</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_ADDRESS</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_CITY</t>
+  </si>
+  <si>
+    <t>CLAIM_PAYABLE_STATE</t>
+  </si>
+  <si>
+    <t>PATIENT_LOGOUT</t>
+  </si>
+  <si>
+    <t>Click on logout</t>
+  </si>
+  <si>
+    <t>Logout successfully</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
+    <t>GetAttribute</t>
+  </si>
+  <si>
+    <t>GetCount</t>
+  </si>
+  <si>
+    <t>GetCurrentURL</t>
+  </si>
+  <si>
+    <t>SelectCheckBox</t>
+  </si>
+  <si>
+    <t>SelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectCheckBox</t>
+  </si>
+  <si>
+    <t>DeSelectByIndex</t>
+  </si>
+  <si>
+    <t>DeSelectByValue</t>
+  </si>
+  <si>
+    <t>DeSelectByVisibleText</t>
+  </si>
+  <si>
+    <t>SwitchFrameByName</t>
+  </si>
+  <si>
+    <t>SwitchFrameByIndex</t>
+  </si>
+  <si>
+    <t>SwitchFrameByXpath</t>
+  </si>
+  <si>
+    <t>SwitchFrame</t>
+  </si>
+  <si>
+    <t>SwitchToDefaultFrame</t>
+  </si>
+  <si>
+    <t>Refresh</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
     <t>AlertOk</t>
-  </si>
-  <si>
-    <t>BACK_BUTTON</t>
-  </si>
-  <si>
-    <t>Click back button</t>
-  </si>
-  <si>
-    <t>Back button clicked</t>
-  </si>
-  <si>
-    <t>PROVIDER_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click on Expenditure</t>
-  </si>
-  <si>
-    <t>Clicked Expenditure</t>
-  </si>
-  <si>
-    <t>CREATE_EXPENDITURE</t>
-  </si>
-  <si>
-    <t>Click Create expenditure</t>
-  </si>
-  <si>
-    <t>Create Expenditure clicked</t>
-  </si>
-  <si>
-    <t>CLAIM_SEARCH_PROVIDER</t>
-  </si>
-  <si>
-    <t>1.Existing provider search</t>
-  </si>
-  <si>
-    <t>NAME_TAB_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_STATE</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>Select State from the search popup</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_LASTNAME</t>
-  </si>
-  <si>
-    <t>Heller</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH</t>
-  </si>
-  <si>
-    <t>Click Search button</t>
-  </si>
-  <si>
-    <t>Search clicked</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_SEARCH_FIRST</t>
-  </si>
-  <si>
-    <t>Select first provider</t>
-  </si>
-  <si>
-    <t>Provier selected</t>
-  </si>
-  <si>
-    <t>SEARCH_PROV_ADD_PROVIDER</t>
-  </si>
-  <si>
-    <t>Click Add Provider</t>
-  </si>
-  <si>
-    <t>Provider added</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_FROM_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO</t>
-  </si>
-  <si>
-    <t>EXPE_DATE_OF_SERVICE_TO_DATE</t>
-  </si>
-  <si>
-    <t>EXPE_AMOUNT_SUBMITTED</t>
-  </si>
-  <si>
-    <t>EXPE_NEXT_BUTTON</t>
-  </si>
-  <si>
-    <t>EXPE_SIGN_SUBMIT</t>
-  </si>
-  <si>
-    <t>EXPE_ELECTRONIC_SIGN</t>
-  </si>
-  <si>
-    <t>Click ok to Pcase alert</t>
-  </si>
-  <si>
-    <t>Pcase alert clicked</t>
-  </si>
-  <si>
-    <t>POE_ID</t>
-  </si>
-  <si>
-    <t>Get POE ID</t>
-  </si>
-  <si>
-    <t>POE id retrieved</t>
-  </si>
-  <si>
-    <t>VerifyElementIsPresent</t>
-  </si>
-  <si>
-    <t>SUBMITTED_EXPENDITURES</t>
-  </si>
-  <si>
-    <t>Verify Submitted expenditures</t>
-  </si>
-  <si>
-    <t>Verified</t>
-  </si>
-  <si>
-    <t>REMITTER_TO_DROPDOWN</t>
-  </si>
-  <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>2. Select Patient</t>
-  </si>
-  <si>
-    <t>selected</t>
-  </si>
-  <si>
-    <t>CLAIM_UPDATE_PAYEE</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYEE_ZIPCODE_VERIFY</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>3. Select Other</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_TO</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_ADDRESS</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_CITY</t>
-  </si>
-  <si>
-    <t>CLAIM_PAYABLE_STATE</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>Clear</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
-  </si>
-  <si>
-    <t>GetAttribute</t>
-  </si>
-  <si>
-    <t>GetCount</t>
-  </si>
-  <si>
-    <t>GetCurrentURL</t>
-  </si>
-  <si>
-    <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectCheckBox</t>
-  </si>
-  <si>
-    <t>DeSelectByIndex</t>
-  </si>
-  <si>
-    <t>DeSelectByValue</t>
-  </si>
-  <si>
-    <t>DeSelectByVisibleText</t>
-  </si>
-  <si>
-    <t>SwitchFrameByName</t>
-  </si>
-  <si>
-    <t>SwitchFrameByIndex</t>
-  </si>
-  <si>
-    <t>SwitchFrameByXpath</t>
-  </si>
-  <si>
-    <t>SwitchFrame</t>
-  </si>
-  <si>
-    <t>SwitchToDefaultFrame</t>
-  </si>
-  <si>
-    <t>Refresh</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
-    <t>Forward</t>
   </si>
   <si>
     <t>DismissAlert</t>
@@ -1339,12 +1343,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,54 +1374,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1432,7 +1395,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1448,7 +1411,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1456,9 +1442,38 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1477,20 +1492,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1498,22 +1515,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1534,43 +1543,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1582,25 +1579,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1618,49 +1609,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,7 +1627,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1690,31 +1705,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1774,21 +1789,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1799,45 +1799,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1862,10 +1823,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1883,134 +1898,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2020,6 +2035,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2097,6 +2114,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2389,8 +2421,8 @@
   <sheetPr/>
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245:G245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -5140,14 +5172,22 @@
       <c r="A128" s="7">
         <v>128</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D128" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>277</v>
+      </c>
       <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8">
@@ -5181,14 +5221,14 @@
         <v>15</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E130" s="7"/>
       <c r="F130" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H130" s="7"/>
     </row>
@@ -5337,14 +5377,14 @@
         <v>15</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H138" s="7"/>
     </row>
@@ -5375,14 +5415,14 @@
         <v>35</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E140" s="7"/>
       <c r="F140" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H140" s="7"/>
     </row>
@@ -5413,11 +5453,11 @@
         <v>15</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E142" s="7"/>
       <c r="F142" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
@@ -5449,7 +5489,7 @@
         <v>35</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E144" s="7"/>
       <c r="F144" s="7"/>
@@ -5483,13 +5523,13 @@
         <v>35</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G146" s="7" t="s">
         <v>104</v>
@@ -5507,10 +5547,10 @@
         <v>15</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>125</v>
@@ -5531,14 +5571,14 @@
         <v>15</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E148" s="7"/>
       <c r="F148" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G148" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H148" s="7"/>
     </row>
@@ -5573,14 +5613,14 @@
         <v>35</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E150" s="7"/>
       <c r="F150" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G150" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H150" s="7"/>
     </row>
@@ -5595,14 +5635,14 @@
         <v>35</v>
       </c>
       <c r="D151" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H151" s="6"/>
     </row>
@@ -5633,7 +5673,7 @@
         <v>35</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -5651,7 +5691,7 @@
         <v>35</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E154" s="7"/>
       <c r="F154" s="7" t="s">
@@ -5673,7 +5713,7 @@
         <v>35</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -5691,7 +5731,7 @@
         <v>35</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E156" s="7"/>
       <c r="F156" s="7" t="s">
@@ -5713,7 +5753,7 @@
         <v>35</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E157" s="6">
         <v>200</v>
@@ -5733,7 +5773,7 @@
         <v>35</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E158" s="7"/>
       <c r="F158" s="7" t="s">
@@ -5815,7 +5855,7 @@
         <v>35</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E162" s="7"/>
       <c r="F162" s="7" t="s">
@@ -5853,7 +5893,7 @@
         <v>35</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E164" s="7"/>
       <c r="F164" s="7"/>
@@ -5871,7 +5911,7 @@
         <v>35</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E165" s="6" t="s">
         <v>98</v>
@@ -5891,7 +5931,7 @@
         <v>35</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E166" s="7"/>
       <c r="F166" s="7"/>
@@ -5918,17 +5958,21 @@
       <c r="A168" s="7">
         <v>168</v>
       </c>
-      <c r="B168" s="7" t="s">
+      <c r="B168" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C168" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D168" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>311</v>
+      <c r="E168" s="9"/>
+      <c r="F168" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G168" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="H168" s="7"/>
     </row>
@@ -6003,14 +6047,14 @@
         <v>35</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E172" s="7"/>
       <c r="F172" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G172" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H172" s="7"/>
     </row>
@@ -6171,11 +6215,11 @@
         <v>15</v>
       </c>
       <c r="D181" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E181" s="6"/>
       <c r="F181" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
@@ -6207,7 +6251,7 @@
         <v>35</v>
       </c>
       <c r="D183" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E183" s="6"/>
       <c r="F183" s="6"/>
@@ -6241,13 +6285,13 @@
         <v>35</v>
       </c>
       <c r="D185" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G185" s="6" t="s">
         <v>104</v>
@@ -6265,10 +6309,10 @@
         <v>15</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>125</v>
@@ -6289,14 +6333,14 @@
         <v>15</v>
       </c>
       <c r="D187" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E187" s="6"/>
       <c r="F187" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G187" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H187" s="6"/>
     </row>
@@ -6331,14 +6375,14 @@
         <v>35</v>
       </c>
       <c r="D189" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E189" s="6"/>
       <c r="F189" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G189" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H189" s="6"/>
     </row>
@@ -6353,14 +6397,14 @@
         <v>35</v>
       </c>
       <c r="D190" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E190" s="7"/>
       <c r="F190" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G190" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H190" s="7"/>
     </row>
@@ -6391,7 +6435,7 @@
         <v>35</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E192" s="7"/>
       <c r="F192" s="7"/>
@@ -6409,7 +6453,7 @@
         <v>35</v>
       </c>
       <c r="D193" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E193" s="6"/>
       <c r="F193" s="6" t="s">
@@ -6431,7 +6475,7 @@
         <v>35</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E194" s="7"/>
       <c r="F194" s="7"/>
@@ -6449,7 +6493,7 @@
         <v>35</v>
       </c>
       <c r="D195" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6" t="s">
@@ -6471,7 +6515,7 @@
         <v>35</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E196" s="7">
         <v>200</v>
@@ -6491,7 +6535,7 @@
         <v>35</v>
       </c>
       <c r="D197" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6" t="s">
@@ -6573,7 +6617,7 @@
         <v>35</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6" t="s">
@@ -6611,7 +6655,7 @@
         <v>35</v>
       </c>
       <c r="D203" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -6629,7 +6673,7 @@
         <v>35</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>98</v>
@@ -6649,7 +6693,7 @@
         <v>35</v>
       </c>
       <c r="D205" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -6676,17 +6720,21 @@
       <c r="A207" s="6">
         <v>207</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D207" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C207" s="6"/>
-      <c r="D207" s="6"/>
-      <c r="E207" s="6"/>
-      <c r="F207" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>311</v>
+      <c r="E207" s="9"/>
+      <c r="F207" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G207" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="H207" s="6"/>
     </row>
@@ -6761,14 +6809,14 @@
         <v>35</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H211" s="6"/>
     </row>
@@ -6923,11 +6971,11 @@
         <v>15</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G219" s="6"/>
       <c r="H219" s="6"/>
@@ -6959,7 +7007,7 @@
         <v>35</v>
       </c>
       <c r="D221" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
@@ -6993,13 +7041,13 @@
         <v>35</v>
       </c>
       <c r="D223" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E223" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G223" s="6" t="s">
         <v>104</v>
@@ -7017,10 +7065,10 @@
         <v>15</v>
       </c>
       <c r="D224" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E224" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F224" s="7" t="s">
         <v>125</v>
@@ -7041,14 +7089,14 @@
         <v>15</v>
       </c>
       <c r="D225" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H225" s="6"/>
     </row>
@@ -7083,14 +7131,14 @@
         <v>35</v>
       </c>
       <c r="D227" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H227" s="6"/>
     </row>
@@ -7105,14 +7153,14 @@
         <v>35</v>
       </c>
       <c r="D228" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E228" s="7"/>
       <c r="F228" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G228" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H228" s="7"/>
     </row>
@@ -7143,7 +7191,7 @@
         <v>35</v>
       </c>
       <c r="D230" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E230" s="7"/>
       <c r="F230" s="7"/>
@@ -7161,7 +7209,7 @@
         <v>35</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="6" t="s">
@@ -7183,7 +7231,7 @@
         <v>35</v>
       </c>
       <c r="D232" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
@@ -7201,7 +7249,7 @@
         <v>35</v>
       </c>
       <c r="D233" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="6" t="s">
@@ -7223,7 +7271,7 @@
         <v>35</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E234" s="7">
         <v>200</v>
@@ -7243,7 +7291,7 @@
         <v>35</v>
       </c>
       <c r="D235" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6" t="s">
@@ -7325,7 +7373,7 @@
         <v>35</v>
       </c>
       <c r="D239" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="6" t="s">
@@ -7363,7 +7411,7 @@
         <v>35</v>
       </c>
       <c r="D241" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
@@ -7381,7 +7429,7 @@
         <v>35</v>
       </c>
       <c r="D242" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E242" s="7" t="s">
         <v>98</v>
@@ -7401,7 +7449,7 @@
         <v>35</v>
       </c>
       <c r="D243" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
@@ -7428,17 +7476,21 @@
       <c r="A245" s="6">
         <v>245</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D245" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C245" s="6"/>
-      <c r="D245" s="6"/>
-      <c r="E245" s="6"/>
-      <c r="F245" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G245" s="6" t="s">
-        <v>311</v>
+      <c r="E245" s="9"/>
+      <c r="F245" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="G245" s="9" t="s">
+        <v>277</v>
       </c>
       <c r="H245" s="6"/>
     </row>
@@ -7541,14 +7593,17 @@
       <c r="H250" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62 B64">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B141 B172 B173 B178 B211 B212 B215 B216 B217 B218 B1:B33 B34:B61 B65:B140 B142:B143 B144:B145 B153:B162 B163:B171 B174:B175 B176:B177 B179:B180 B181:B182 B183:B184 B192:B201 B202:B210 B213:B214 B219:B220 B221:B222 B230:B239 B240:B248 B249:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63 B141 B172 B173 B178 B211 B212 B215 B216 B217 B218 B1:B33 B34:B61 B65:B127 B129:B140 B142:B143 B144:B145 B153:B162 B163:B167 B169:B171 B174:B175 B176:B177 B179:B180 B181:B182 B183:B184 B192:B201 B202:B206 B208:B210 B213:B214 B219:B220 B221:B222 B230:B239 B240:B244 B246:B248 B249:B1048576">
       <formula1>DataList!$C$2:$C$109</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C172 C178 C179 C211 C217 C218 C1:C33 C34:C140 C141:C143 C144:C145 C153:C162 C163:C171 C173:C175 C176:C177 C181:C182 C183:C184 C192:C201 C202:C210 C212:C214 C215:C216 C219:C220 C221:C222 C230:C239 C240:C248 C249:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B128 C128 B168 C168 B207 C207 B245 C245">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C172 C178 C179 C211 C217 C218 C1:C33 C34:C127 C129:C140 C141:C143 C144:C145 C153:C162 C163:C167 C169:C171 C173:C175 C176:C177 C181:C182 C183:C184 C192:C201 C202:C206 C208:C210 C212:C214 C215:C216 C219:C220 C221:C222 C230:C239 C240:C244 C246:C248 C249:C1048576">
       <formula1>DataList!$A$2:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B146:B152 B185:B191 B223:B229">
@@ -7818,92 +7873,92 @@
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>275</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -7913,37 +7968,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -7953,22 +8008,22 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>351</v>
@@ -7976,12 +8031,12 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>351</v>
@@ -7989,27 +8044,27 @@
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>351</v>
@@ -8017,7 +8072,7 @@
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>351</v>
@@ -8025,87 +8080,87 @@
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="97" spans="3:3">
@@ -8120,17 +8175,17 @@
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -2421,8 +2421,8 @@
   <sheetPr/>
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245:G245"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3180,7 +3180,7 @@
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>12</v>
@@ -3426,7 +3426,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
@@ -3702,7 +3702,7 @@
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>12</v>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Create_PCase_Positive_Alien_POE2.xlsx
@@ -2421,8 +2421,8 @@
   <sheetPr/>
   <dimension ref="A1:H250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128:G128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
